--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.104</v>
+        <v>-21.933</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.5</v>
+        <v>-8.007000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.848</v>
+        <v>-21.644</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.562000000000001</v>
+        <v>-8.289</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.77</v>
+        <v>-7.884</v>
       </c>
     </row>
     <row r="20">
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.9</v>
+        <v>-20.866</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -740,7 +740,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>6.978</v>
+        <v>6.881</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.71</v>
+        <v>-20.502</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.784000000000001</v>
+        <v>5.342000000000001</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.589</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.826</v>
+        <v>-21.367</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.624</v>
+        <v>5.468000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.216</v>
+        <v>-21.577</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>7.476000000000001</v>
+        <v>6.19</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.869000000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.654</v>
+        <v>5.646999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.606</v>
+        <v>-7.662000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.709999999999999</v>
+        <v>6.238</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>5.994</v>
+        <v>6.237</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.48</v>
+        <v>-8.231</v>
       </c>
     </row>
     <row r="52">
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.668</v>
+        <v>5.58</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-20.274</v>
+        <v>-20.72</v>
       </c>
       <c r="B53" t="n">
-        <v>7.08</v>
+        <v>8.151</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.136000000000001</v>
+        <v>5.144000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.540000000000001</v>
+        <v>-8.288999999999998</v>
       </c>
     </row>
     <row r="56">
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.29</v>
+        <v>-22.16</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.263999999999999</v>
+        <v>-8.074999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.452</v>
+        <v>-22.282</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.618</v>
+        <v>-7.407000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.652</v>
+        <v>-21.441</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1412,7 +1412,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>4.932</v>
+        <v>5.511000000000001</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.572</v>
+        <v>-21.348</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.942</v>
+        <v>-8.166</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.938</v>
+        <v>-21.963</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.996</v>
+        <v>4.936999999999999</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1650,7 +1650,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.41</v>
+        <v>4.537000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>4.598000000000001</v>
+        <v>4.983000000000001</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.17</v>
+        <v>-21.062</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1726,12 +1726,12 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.355000000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.398</v>
+        <v>-21.533</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.140000000000001</v>
+        <v>-7.703999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.228</v>
+        <v>-7.464</v>
       </c>
     </row>
     <row r="97">
@@ -1846,13 +1846,13 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>5.456</v>
+        <v>5.731999999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.558</v>
+        <v>-7.540000000000001</v>
       </c>
     </row>
     <row r="102">
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.032</v>
+        <v>-22.055</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
